--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135801.698820515</v>
+        <v>1076731.54193215</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9891663.744922137</v>
+        <v>9891663.744922131</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12331392.98641594</v>
+        <v>12331392.98641595</v>
       </c>
     </row>
     <row r="9">
@@ -1387,43 +1387,43 @@
         <v>211.6993462124251</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>211.6993462124251</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>195.2291836413926</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>211.6993462124251</v>
       </c>
-      <c r="V12" t="n">
-        <v>29.8639186919843</v>
-      </c>
       <c r="W12" t="n">
-        <v>211.6993462124251</v>
+        <v>208.9515971500572</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.1000370858502</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>124.5787326219233</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>131.1350971080682</v>
       </c>
       <c r="S13" t="n">
         <v>206.1262927167404</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>60.90274053152053</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.3100865669362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,17 +1612,17 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>180.3544504964568</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>211.6993462124251</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>186.464784143904</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>211.6993462124251</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>53.9960991162911</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S15" t="n">
         <v>148.9388475986454</v>
       </c>
       <c r="T15" t="n">
-        <v>195.2291836413926</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>211.6993462124251</v>
       </c>
       <c r="W15" t="n">
-        <v>211.6993462124251</v>
+        <v>119.0147371641023</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>64.28391060778748</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>130.2311975124325</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,13 +1782,13 @@
         <v>166.9644099347626</v>
       </c>
       <c r="H16" t="n">
-        <v>153.1000370858502</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>124.5787326219233</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.78072186135526</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>64.21862066321151</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>122.2461634806924</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.8694987213378</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>112.9381345068517</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>84.18588114182305</v>
       </c>
       <c r="D18" t="n">
-        <v>92.32943041869777</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.1000370858502</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>20.78072186135526</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R19" t="n">
-        <v>131.1350971080682</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.1262927167404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.6993462124251</v>
+        <v>78.6614706950908</v>
       </c>
       <c r="U19" t="n">
         <v>211.6993462124251</v>
       </c>
       <c r="V19" t="n">
-        <v>60.90274053152056</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.8694987213378</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U20" t="n">
-        <v>186.464784143904</v>
+        <v>23.48495177511897</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="W20" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7.742431513798255</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>53.99609911629113</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.2291836413926</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="W21" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>85.2954085436684</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>186.464784143904</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>211.6993462124251</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>102.9204141281203</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>316.0370825822407</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>122.2461634806924</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S23" t="n">
-        <v>156.8694987213378</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.0776762690734</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>131.430119902432</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1190293806407</v>
+        <v>4.437040368651047</v>
       </c>
       <c r="H24" t="n">
-        <v>100.4094701258864</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>47.23773331994856</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T24" t="n">
-        <v>83.34718400946991</v>
+        <v>195.2291836413926</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8608236742268</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9644099347626</v>
       </c>
       <c r="H25" t="n">
         <v>153.1000370858502</v>
       </c>
       <c r="I25" t="n">
-        <v>124.5787326219233</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.78072186135526</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>131.1350971080682</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.0085021835346</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>86.02688002358497</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>155.181795846942</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>122.2461634806924</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>91.24092014757834</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1190293806407</v>
+        <v>56.47352401203526</v>
       </c>
       <c r="H27" t="n">
         <v>100.4094701258864</v>
       </c>
       <c r="I27" t="n">
-        <v>47.23773331994856</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>24.13218042430681</v>
       </c>
       <c r="S27" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>195.2291836413926</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>153.9163060560927</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.09535448915102</v>
+        <v>166.9644099347626</v>
       </c>
       <c r="H28" t="n">
         <v>153.1000370858502</v>
@@ -2736,7 +2736,7 @@
         <v>124.5787326219233</v>
       </c>
       <c r="J28" t="n">
-        <v>20.78072186135526</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>206.1262927167404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.0802393719055</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>92.23985676641507</v>
       </c>
       <c r="H29" t="n">
-        <v>32.7552399616599</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>122.2461634806924</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.70047379232803</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S30" t="n">
         <v>148.9388475986454</v>
@@ -2927,7 +2927,7 @@
         <v>195.2291836413926</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8608236742268</v>
+        <v>206.165683618571</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.4670834529123112</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.4145688040341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>106.4844442329825</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S32" t="n">
-        <v>155.9852674381609</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>4.43704036865104</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>148.9388475986454</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.1628710600971</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>13.81080957459184</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>131.1350971080682</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>28.25173292581981</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>186.4647841439039</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>180.3544504964568</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U35" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>32.29132163144538</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1190293806407</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>148.9388475986454</v>
       </c>
       <c r="T36" t="n">
-        <v>195.2291836413926</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>211.6993462124251</v>
       </c>
       <c r="V36" t="n">
-        <v>53.99609911629103</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.227730255176922</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>143.0826557377069</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9644099347626</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1000370858502</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>211.6993462124251</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>156.8694987213378</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>23.48495177511897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>186.464784143904</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>63.50505111697311</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.1190293806407</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>100.4094701258864</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>47.23773331994856</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>25.69929659965661</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>114.1692022699766</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9644099347626</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>206.1262927167404</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V40" t="n">
-        <v>211.6993462124251</v>
+        <v>24.87257501372444</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>58.10828701576438</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>211.6993462124251</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>186.4647841439039</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>122.2461634806924</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>211.6993462124251</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>24.13218042430681</v>
       </c>
       <c r="S42" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.2291836413926</v>
+        <v>26.83054959902665</v>
       </c>
       <c r="U42" t="n">
-        <v>122.9090316731177</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9644099347626</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.1000370858502</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>206.1262927167404</v>
+        <v>154.2187217888996</v>
       </c>
       <c r="T43" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>192.0378376395887</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>211.6993462124251</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>64.21862066321151</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>122.2461634806924</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.110333647447163</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>180.3544504964568</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>55.19473664589098</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1190293806407</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>100.4094701258864</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>58.922447718146</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>51.08532907576384</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>82.10098354838712</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="U46" t="n">
         <v>211.6993462124251</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.6993462124251</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="C11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="D11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="F11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="G11" t="n">
-        <v>230.7736711438881</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H11" t="n">
         <v>16.93594769699401</v>
@@ -5071,22 +5071,22 @@
         <v>846.7973848497005</v>
       </c>
       <c r="T11" t="n">
-        <v>846.7973848497005</v>
+        <v>632.9596614028064</v>
       </c>
       <c r="U11" t="n">
-        <v>846.7973848497005</v>
+        <v>632.9596614028064</v>
       </c>
       <c r="V11" t="n">
-        <v>658.4491180376763</v>
+        <v>444.6113945907822</v>
       </c>
       <c r="W11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="X11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="Y11" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>368.7076419265103</v>
       </c>
       <c r="N12" t="n">
-        <v>553.9635224395859</v>
+        <v>578.2899946768111</v>
       </c>
       <c r="O12" t="n">
         <v>731.7870348577057</v>
@@ -5144,25 +5144,25 @@
         <v>846.7973848497005</v>
       </c>
       <c r="R12" t="n">
-        <v>822.4214450271684</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="S12" t="n">
-        <v>671.9781646244962</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="T12" t="n">
-        <v>474.77696902713</v>
+        <v>649.5961892523342</v>
       </c>
       <c r="U12" t="n">
-        <v>260.9392455802359</v>
+        <v>649.5961892523342</v>
       </c>
       <c r="V12" t="n">
-        <v>230.7736711438881</v>
+        <v>435.7584658054401</v>
       </c>
       <c r="W12" t="n">
-        <v>16.93594769699401</v>
+        <v>224.6962464619479</v>
       </c>
       <c r="X12" t="n">
-        <v>16.93594769699401</v>
+        <v>224.6962464619479</v>
       </c>
       <c r="Y12" t="n">
         <v>16.93594769699401</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.3557363903286</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="C13" t="n">
-        <v>297.4195534624217</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="D13" t="n">
-        <v>297.4195534624217</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E13" t="n">
-        <v>297.4195534624217</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="F13" t="n">
-        <v>297.4195534624217</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="G13" t="n">
-        <v>297.4195534624217</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7730513555024</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="I13" t="n">
         <v>16.93594769699401</v>
@@ -5202,49 +5202,49 @@
         <v>16.93594769699401</v>
       </c>
       <c r="K13" t="n">
-        <v>16.93594769699401</v>
+        <v>112.9651659029007</v>
       </c>
       <c r="L13" t="n">
-        <v>195.3467199008479</v>
+        <v>291.3759381067546</v>
       </c>
       <c r="M13" t="n">
-        <v>393.8449872482039</v>
+        <v>489.8742054541106</v>
       </c>
       <c r="N13" t="n">
-        <v>593.0580258853354</v>
+        <v>689.0872440912419</v>
       </c>
       <c r="O13" t="n">
-        <v>761.0472151168838</v>
+        <v>726.5742946617743</v>
       </c>
       <c r="P13" t="n">
         <v>846.7973848497005</v>
       </c>
       <c r="Q13" t="n">
-        <v>846.5945033435372</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="R13" t="n">
-        <v>846.5945033435372</v>
+        <v>714.3376908011467</v>
       </c>
       <c r="S13" t="n">
-        <v>638.3861268619813</v>
+        <v>506.1293143195908</v>
       </c>
       <c r="T13" t="n">
-        <v>638.3861268619813</v>
+        <v>506.1293143195908</v>
       </c>
       <c r="U13" t="n">
-        <v>638.3861268619813</v>
+        <v>292.2915908726967</v>
       </c>
       <c r="V13" t="n">
-        <v>638.3861268619813</v>
+        <v>78.45386742580263</v>
       </c>
       <c r="W13" t="n">
-        <v>638.3861268619813</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="X13" t="n">
-        <v>638.3861268619813</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="Y13" t="n">
-        <v>466.3557363903286</v>
+        <v>16.93594769699401</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>230.7736711438881</v>
+        <v>412.9498837665717</v>
       </c>
       <c r="C14" t="n">
-        <v>230.7736711438881</v>
+        <v>412.9498837665717</v>
       </c>
       <c r="D14" t="n">
         <v>230.7736711438881</v>
@@ -5266,7 +5266,7 @@
         <v>230.7736711438881</v>
       </c>
       <c r="F14" t="n">
-        <v>16.93594769699401</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="G14" t="n">
         <v>16.93594769699401</v>
@@ -5302,28 +5302,28 @@
         <v>846.7973848497004</v>
       </c>
       <c r="R14" t="n">
-        <v>846.7973848497004</v>
+        <v>840.6253306603599</v>
       </c>
       <c r="S14" t="n">
-        <v>846.7973848497004</v>
+        <v>840.6253306603599</v>
       </c>
       <c r="T14" t="n">
-        <v>846.7973848497004</v>
+        <v>626.7876072134658</v>
       </c>
       <c r="U14" t="n">
-        <v>846.7973848497004</v>
+        <v>626.7876072134658</v>
       </c>
       <c r="V14" t="n">
-        <v>846.7973848497004</v>
+        <v>626.7876072134658</v>
       </c>
       <c r="W14" t="n">
-        <v>658.4491180376762</v>
+        <v>626.7876072134658</v>
       </c>
       <c r="X14" t="n">
-        <v>444.6113945907821</v>
+        <v>626.7876072134658</v>
       </c>
       <c r="Y14" t="n">
-        <v>230.7736711438881</v>
+        <v>412.9498837665717</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.47746195587391</v>
+        <v>337.9235349512361</v>
       </c>
       <c r="C15" t="n">
-        <v>71.47746195587391</v>
+        <v>163.470505670109</v>
       </c>
       <c r="D15" t="n">
-        <v>71.47746195587391</v>
+        <v>163.470505670109</v>
       </c>
       <c r="E15" t="n">
-        <v>71.47746195587391</v>
+        <v>163.470505670109</v>
       </c>
       <c r="F15" t="n">
-        <v>71.47746195587391</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="G15" t="n">
         <v>16.93594769699401</v>
@@ -5360,49 +5360,49 @@
         <v>16.93594769699401</v>
       </c>
       <c r="K15" t="n">
-        <v>106.7939375757052</v>
+        <v>76.22356795435344</v>
       </c>
       <c r="L15" t="n">
-        <v>232.8360007136549</v>
+        <v>202.2656310923031</v>
       </c>
       <c r="M15" t="n">
-        <v>399.278011547862</v>
+        <v>368.7076419265103</v>
       </c>
       <c r="N15" t="n">
-        <v>584.5338920609377</v>
+        <v>553.9635224395859</v>
       </c>
       <c r="O15" t="n">
-        <v>731.7870348577056</v>
+        <v>701.2166652363538</v>
       </c>
       <c r="P15" t="n">
-        <v>830.6375977752231</v>
+        <v>800.0672281538713</v>
       </c>
       <c r="Q15" t="n">
         <v>846.7973848497004</v>
       </c>
       <c r="R15" t="n">
-        <v>846.7973848497004</v>
+        <v>822.4214450271683</v>
       </c>
       <c r="S15" t="n">
-        <v>696.3541044470282</v>
+        <v>671.9781646244961</v>
       </c>
       <c r="T15" t="n">
-        <v>499.152908849662</v>
+        <v>671.9781646244961</v>
       </c>
       <c r="U15" t="n">
-        <v>499.152908849662</v>
+        <v>671.9781646244961</v>
       </c>
       <c r="V15" t="n">
-        <v>285.315185402768</v>
+        <v>458.140441177602</v>
       </c>
       <c r="W15" t="n">
-        <v>71.47746195587391</v>
+        <v>337.9235349512361</v>
       </c>
       <c r="X15" t="n">
-        <v>71.47746195587391</v>
+        <v>337.9235349512361</v>
       </c>
       <c r="Y15" t="n">
-        <v>71.47746195587391</v>
+        <v>337.9235349512361</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
       <c r="C16" t="n">
-        <v>846.7973848497004</v>
+        <v>464.0234784748994</v>
       </c>
       <c r="D16" t="n">
-        <v>781.8641418115312</v>
+        <v>464.0234784748994</v>
       </c>
       <c r="E16" t="n">
-        <v>633.9510482291381</v>
+        <v>332.4768143209272</v>
       </c>
       <c r="F16" t="n">
-        <v>487.0611007312277</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="G16" t="n">
-        <v>318.4101816052049</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H16" t="n">
-        <v>163.7636794982855</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9265758397771</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="J16" t="n">
         <v>16.93594769699401</v>
       </c>
       <c r="K16" t="n">
-        <v>112.9651659029007</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3759381067546</v>
+        <v>195.3467199008479</v>
       </c>
       <c r="M16" t="n">
-        <v>489.8742054541106</v>
+        <v>393.8449872482039</v>
       </c>
       <c r="N16" t="n">
-        <v>558.5851054302257</v>
+        <v>593.0580258853354</v>
       </c>
       <c r="O16" t="n">
-        <v>726.5742946617742</v>
+        <v>761.0472151168838</v>
       </c>
       <c r="P16" t="n">
         <v>846.7973848497004</v>
@@ -5469,19 +5469,19 @@
         <v>846.7973848497004</v>
       </c>
       <c r="U16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
       <c r="V16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
       <c r="W16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
       <c r="X16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>632.9596614028063</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="C17" t="n">
-        <v>632.9596614028063</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="D17" t="n">
-        <v>632.9596614028063</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="E17" t="n">
-        <v>632.9596614028063</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="F17" t="n">
-        <v>568.0923678036028</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="G17" t="n">
-        <v>354.2546443567087</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="H17" t="n">
         <v>140.4169209098146</v>
@@ -5515,52 +5515,52 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J17" t="n">
-        <v>29.99682119773539</v>
+        <v>29.99682119773524</v>
       </c>
       <c r="K17" t="n">
-        <v>100.3102031391414</v>
+        <v>100.3102031391413</v>
       </c>
       <c r="L17" t="n">
-        <v>224.4419328299347</v>
+        <v>224.4419328299346</v>
       </c>
       <c r="M17" t="n">
-        <v>394.2318371787685</v>
+        <v>394.2318371787684</v>
       </c>
       <c r="N17" t="n">
-        <v>571.3829280686791</v>
+        <v>571.382928068679</v>
       </c>
       <c r="O17" t="n">
-        <v>725.326418535056</v>
+        <v>725.3264185350561</v>
       </c>
       <c r="P17" t="n">
-        <v>822.2126251806263</v>
+        <v>822.2126251806264</v>
       </c>
       <c r="Q17" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="R17" t="n">
-        <v>846.7973848497004</v>
+        <v>840.62533066036</v>
       </c>
       <c r="S17" t="n">
-        <v>846.7973848497004</v>
+        <v>682.1712915478975</v>
       </c>
       <c r="T17" t="n">
-        <v>846.7973848497004</v>
+        <v>468.3335681010034</v>
       </c>
       <c r="U17" t="n">
-        <v>846.7973848497004</v>
+        <v>254.4958446541093</v>
       </c>
       <c r="V17" t="n">
-        <v>846.7973848497004</v>
+        <v>254.4958446541093</v>
       </c>
       <c r="W17" t="n">
-        <v>846.7973848497004</v>
+        <v>254.4958446541093</v>
       </c>
       <c r="X17" t="n">
-        <v>846.7973848497004</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="Y17" t="n">
-        <v>846.7973848497004</v>
+        <v>140.4169209098146</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>431.1855858792136</v>
+        <v>250.9066009358443</v>
       </c>
       <c r="C18" t="n">
-        <v>256.7325565980866</v>
+        <v>165.8703573582453</v>
       </c>
       <c r="D18" t="n">
-        <v>163.470505670109</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E18" t="n">
-        <v>163.470505670109</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="F18" t="n">
         <v>16.93594769699401</v>
@@ -5606,40 +5606,40 @@
         <v>368.7076419265103</v>
       </c>
       <c r="N18" t="n">
-        <v>578.2899946768111</v>
+        <v>553.9635224395859</v>
       </c>
       <c r="O18" t="n">
-        <v>725.5431374735791</v>
+        <v>701.2166652363538</v>
       </c>
       <c r="P18" t="n">
-        <v>824.3937003910966</v>
+        <v>800.0672281538713</v>
       </c>
       <c r="Q18" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="R18" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="S18" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="T18" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="U18" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028064</v>
       </c>
       <c r="V18" t="n">
-        <v>846.7973848497004</v>
+        <v>632.9596614028064</v>
       </c>
       <c r="W18" t="n">
-        <v>846.7973848497004</v>
+        <v>419.1219379559124</v>
       </c>
       <c r="X18" t="n">
-        <v>638.9458846441676</v>
+        <v>419.1219379559124</v>
       </c>
       <c r="Y18" t="n">
-        <v>431.1855858792136</v>
+        <v>419.1219379559124</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="C19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="D19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="E19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="F19" t="n">
-        <v>16.93594769699401</v>
+        <v>192.5730779466965</v>
       </c>
       <c r="G19" t="n">
-        <v>16.93594769699401</v>
+        <v>192.5730779466965</v>
       </c>
       <c r="H19" t="n">
-        <v>16.93594769699401</v>
+        <v>37.9265758397771</v>
       </c>
       <c r="I19" t="n">
-        <v>16.93594769699401</v>
+        <v>37.9265758397771</v>
       </c>
       <c r="J19" t="n">
         <v>16.93594769699401</v>
       </c>
       <c r="K19" t="n">
-        <v>16.93594769699401</v>
+        <v>112.9651659029007</v>
       </c>
       <c r="L19" t="n">
-        <v>195.3467199008479</v>
+        <v>291.3759381067546</v>
       </c>
       <c r="M19" t="n">
-        <v>359.3720667930942</v>
+        <v>359.3720667930945</v>
       </c>
       <c r="N19" t="n">
-        <v>558.5851054302257</v>
+        <v>558.5851054302259</v>
       </c>
       <c r="O19" t="n">
-        <v>726.5742946617742</v>
+        <v>726.5742946617743</v>
       </c>
       <c r="P19" t="n">
-        <v>846.7973848497004</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="Q19" t="n">
-        <v>846.7973848497004</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="R19" t="n">
-        <v>714.3376908011467</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="S19" t="n">
-        <v>506.1293143195908</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="T19" t="n">
-        <v>292.2915908726967</v>
+        <v>767.138472338395</v>
       </c>
       <c r="U19" t="n">
-        <v>78.45386742580266</v>
+        <v>553.3007488915009</v>
       </c>
       <c r="V19" t="n">
-        <v>16.93594769699401</v>
+        <v>553.3007488915009</v>
       </c>
       <c r="W19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="X19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.93594769699401</v>
+        <v>339.4630254446068</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J20" t="n">
-        <v>29.99682119773524</v>
+        <v>29.99682119773526</v>
       </c>
       <c r="K20" t="n">
-        <v>100.3102031391413</v>
+        <v>100.3102031391412</v>
       </c>
       <c r="L20" t="n">
         <v>224.4419328299346</v>
       </c>
       <c r="M20" t="n">
-        <v>394.2318371787684</v>
+        <v>394.2318371787683</v>
       </c>
       <c r="N20" t="n">
         <v>571.382928068679</v>
@@ -5776,25 +5776,25 @@
         <v>846.7973848497005</v>
       </c>
       <c r="R20" t="n">
-        <v>846.7973848497005</v>
+        <v>840.62533066036</v>
       </c>
       <c r="S20" t="n">
-        <v>846.7973848497005</v>
+        <v>682.1712915478975</v>
       </c>
       <c r="T20" t="n">
-        <v>846.7973848497005</v>
+        <v>468.3335681010034</v>
       </c>
       <c r="U20" t="n">
-        <v>658.4491180376763</v>
+        <v>444.6113945907822</v>
       </c>
       <c r="V20" t="n">
-        <v>658.4491180376763</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="W20" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6113945907822</v>
+        <v>230.7736711438881</v>
       </c>
       <c r="Y20" t="n">
         <v>230.7736711438881</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.75658558971952</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="C21" t="n">
-        <v>24.75658558971952</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="D21" t="n">
-        <v>24.75658558971952</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="E21" t="n">
-        <v>16.93594769699401</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="F21" t="n">
-        <v>16.93594769699401</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="G21" t="n">
         <v>16.93594769699401</v>
@@ -5831,19 +5831,19 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J21" t="n">
-        <v>16.93594769699401</v>
+        <v>47.50631731834588</v>
       </c>
       <c r="K21" t="n">
-        <v>76.22356795435344</v>
+        <v>106.7939375757053</v>
       </c>
       <c r="L21" t="n">
-        <v>202.2656310923031</v>
+        <v>232.836000713655</v>
       </c>
       <c r="M21" t="n">
-        <v>368.7076419265103</v>
+        <v>399.2780115478621</v>
       </c>
       <c r="N21" t="n">
-        <v>553.9635224395859</v>
+        <v>584.5338920609378</v>
       </c>
       <c r="O21" t="n">
         <v>731.7870348577057</v>
@@ -5855,28 +5855,28 @@
         <v>846.7973848497005</v>
       </c>
       <c r="R21" t="n">
-        <v>822.4214450271684</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="S21" t="n">
-        <v>822.4214450271684</v>
+        <v>696.3541044470284</v>
       </c>
       <c r="T21" t="n">
-        <v>822.4214450271684</v>
+        <v>499.1529088496621</v>
       </c>
       <c r="U21" t="n">
-        <v>822.4214450271684</v>
+        <v>285.315185402768</v>
       </c>
       <c r="V21" t="n">
-        <v>822.4214450271684</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="W21" t="n">
-        <v>608.5837215802743</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="X21" t="n">
-        <v>400.7322213747415</v>
+        <v>71.47746195587393</v>
       </c>
       <c r="Y21" t="n">
-        <v>192.9719226097876</v>
+        <v>71.47746195587393</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.93594769699401</v>
+        <v>418.9190564497491</v>
       </c>
       <c r="C22" t="n">
-        <v>16.93594769699401</v>
+        <v>249.9828735218422</v>
       </c>
       <c r="D22" t="n">
-        <v>16.93594769699401</v>
+        <v>249.9828735218422</v>
       </c>
       <c r="E22" t="n">
-        <v>16.93594769699401</v>
+        <v>249.9828735218422</v>
       </c>
       <c r="F22" t="n">
-        <v>16.93594769699401</v>
+        <v>103.0929260239318</v>
       </c>
       <c r="G22" t="n">
         <v>16.93594769699401</v>
@@ -5916,46 +5916,46 @@
         <v>112.9651659029007</v>
       </c>
       <c r="L22" t="n">
-        <v>291.3759381067546</v>
+        <v>281.0968896336647</v>
       </c>
       <c r="M22" t="n">
-        <v>359.3720667930945</v>
+        <v>479.5951569810206</v>
       </c>
       <c r="N22" t="n">
-        <v>558.5851054302259</v>
+        <v>678.808195618152</v>
       </c>
       <c r="O22" t="n">
-        <v>726.5742946617743</v>
+        <v>846.7973848497005</v>
       </c>
       <c r="P22" t="n">
         <v>846.7973848497005</v>
       </c>
       <c r="Q22" t="n">
-        <v>846.7973848497005</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="R22" t="n">
-        <v>846.7973848497005</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="S22" t="n">
-        <v>846.7973848497005</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="T22" t="n">
-        <v>632.9596614028064</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="U22" t="n">
-        <v>632.9596614028064</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="V22" t="n">
-        <v>444.6113945907822</v>
+        <v>846.5945033435372</v>
       </c>
       <c r="W22" t="n">
-        <v>230.7736711438881</v>
+        <v>632.7567798966431</v>
       </c>
       <c r="X22" t="n">
-        <v>16.93594769699401</v>
+        <v>418.9190564497491</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.93594769699401</v>
+        <v>418.9190564497491</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580.5422592233349</v>
+        <v>777.9258465989827</v>
       </c>
       <c r="C23" t="n">
-        <v>580.5422592233349</v>
+        <v>777.9258465989827</v>
       </c>
       <c r="D23" t="n">
-        <v>580.5422592233349</v>
+        <v>419.6601479922322</v>
       </c>
       <c r="E23" t="n">
-        <v>580.5422592233349</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="F23" t="n">
-        <v>580.5422592233349</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="G23" t="n">
-        <v>476.5822449525063</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="H23" t="n">
-        <v>157.3528686068086</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="I23" t="n">
         <v>33.87189539398801</v>
@@ -5992,49 +5992,49 @@
         <v>46.93276889472939</v>
       </c>
       <c r="K23" t="n">
-        <v>117.2461508361353</v>
+        <v>438.1501092815885</v>
       </c>
       <c r="L23" t="n">
-        <v>241.3778805269287</v>
+        <v>857.3148147821901</v>
       </c>
       <c r="M23" t="n">
-        <v>411.1677848757624</v>
+        <v>1027.104719131024</v>
       </c>
       <c r="N23" t="n">
-        <v>624.1865360410808</v>
+        <v>1204.255810020934</v>
       </c>
       <c r="O23" t="n">
-        <v>1043.351241541682</v>
+        <v>1572.123803384756</v>
       </c>
       <c r="P23" t="n">
-        <v>1458.818169277021</v>
+        <v>1669.010010030326</v>
       </c>
       <c r="Q23" t="n">
         <v>1693.5947696994</v>
       </c>
       <c r="R23" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="S23" t="n">
-        <v>1535.140730586938</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="T23" t="n">
-        <v>1319.910754557571</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="U23" t="n">
-        <v>1319.910754557571</v>
+        <v>1554.665018638916</v>
       </c>
       <c r="V23" t="n">
-        <v>1319.910754557571</v>
+        <v>1554.665018638916</v>
       </c>
       <c r="W23" t="n">
-        <v>967.1420992874566</v>
+        <v>1554.665018638916</v>
       </c>
       <c r="X23" t="n">
-        <v>967.1420992874566</v>
+        <v>1554.665018638916</v>
       </c>
       <c r="Y23" t="n">
-        <v>967.1420992874566</v>
+        <v>1164.525686663105</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.4264507200627</v>
+        <v>212.8067836333484</v>
       </c>
       <c r="C24" t="n">
-        <v>615.9734214389357</v>
+        <v>38.35375435222139</v>
       </c>
       <c r="D24" t="n">
-        <v>467.0390117776844</v>
+        <v>38.35375435222139</v>
       </c>
       <c r="E24" t="n">
-        <v>467.0390117776844</v>
+        <v>38.35375435222139</v>
       </c>
       <c r="F24" t="n">
-        <v>320.5044538045694</v>
+        <v>38.35375435222139</v>
       </c>
       <c r="G24" t="n">
-        <v>183.0104847332152</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="H24" t="n">
-        <v>81.58677753535019</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="I24" t="n">
         <v>33.87189539398801</v>
@@ -6071,22 +6071,22 @@
         <v>33.87189539398801</v>
       </c>
       <c r="K24" t="n">
-        <v>158.4251039095432</v>
+        <v>93.15951565134745</v>
       </c>
       <c r="L24" t="n">
-        <v>284.4671670474929</v>
+        <v>219.2015787892971</v>
       </c>
       <c r="M24" t="n">
-        <v>450.9091778817</v>
+        <v>638.3662842898987</v>
       </c>
       <c r="N24" t="n">
-        <v>636.1650583947757</v>
+        <v>823.6221648029743</v>
       </c>
       <c r="O24" t="n">
-        <v>1055.329763895377</v>
+        <v>1242.786870303576</v>
       </c>
       <c r="P24" t="n">
-        <v>1469.458467766432</v>
+        <v>1656.915574174631</v>
       </c>
       <c r="Q24" t="n">
         <v>1693.5947696994</v>
@@ -6095,25 +6095,25 @@
         <v>1693.5947696994</v>
       </c>
       <c r="S24" t="n">
-        <v>1693.5947696994</v>
+        <v>1543.151489296728</v>
       </c>
       <c r="T24" t="n">
-        <v>1609.40569494236</v>
+        <v>1345.950293699362</v>
       </c>
       <c r="U24" t="n">
-        <v>1609.40569494236</v>
+        <v>1117.808047563779</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.253586710617</v>
+        <v>882.6559393320367</v>
       </c>
       <c r="W24" t="n">
-        <v>1374.253586710617</v>
+        <v>628.4185826038351</v>
       </c>
       <c r="X24" t="n">
-        <v>1166.402086505085</v>
+        <v>420.5670823983023</v>
       </c>
       <c r="Y24" t="n">
-        <v>958.6417877401307</v>
+        <v>212.8067836333484</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1184.822067206224</v>
+        <v>651.9723577072338</v>
       </c>
       <c r="C25" t="n">
-        <v>1184.822067206224</v>
+        <v>651.9723577072338</v>
       </c>
       <c r="D25" t="n">
-        <v>1034.705427793889</v>
+        <v>651.9723577072338</v>
       </c>
       <c r="E25" t="n">
-        <v>1034.705427793889</v>
+        <v>504.0592641248406</v>
       </c>
       <c r="F25" t="n">
-        <v>1034.705427793889</v>
+        <v>357.1693166269303</v>
       </c>
       <c r="G25" t="n">
-        <v>1034.705427793889</v>
+        <v>188.5183975009074</v>
       </c>
       <c r="H25" t="n">
-        <v>880.0589256869694</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="I25" t="n">
-        <v>754.221822028461</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="J25" t="n">
-        <v>733.231193885678</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="K25" t="n">
-        <v>829.2604120915846</v>
+        <v>129.9011135998946</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.671184295438</v>
+        <v>308.3118858037486</v>
       </c>
       <c r="M25" t="n">
-        <v>1206.169451642794</v>
+        <v>506.8101531511045</v>
       </c>
       <c r="N25" t="n">
-        <v>1405.382490279926</v>
+        <v>706.0231917882359</v>
       </c>
       <c r="O25" t="n">
-        <v>1573.371679511474</v>
+        <v>874.0123810197842</v>
       </c>
       <c r="P25" t="n">
-        <v>1693.5947696994</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="Q25" t="n">
-        <v>1693.5947696994</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="R25" t="n">
-        <v>1561.135075650847</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="S25" t="n">
-        <v>1561.135075650847</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="T25" t="n">
-        <v>1561.135075650847</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="U25" t="n">
-        <v>1561.135075650847</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.239237243185</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="W25" t="n">
-        <v>1184.822067206224</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.822067206224</v>
+        <v>833.6208225374735</v>
       </c>
       <c r="Y25" t="n">
-        <v>1184.822067206224</v>
+        <v>833.6208225374735</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>190.6211841282729</v>
+        <v>1270.369336752215</v>
       </c>
       <c r="C26" t="n">
-        <v>33.87189539398801</v>
+        <v>901.4068198118034</v>
       </c>
       <c r="D26" t="n">
-        <v>33.87189539398801</v>
+        <v>543.1411212050529</v>
       </c>
       <c r="E26" t="n">
-        <v>33.87189539398801</v>
+        <v>157.3528686068086</v>
       </c>
       <c r="F26" t="n">
-        <v>33.87189539398801</v>
+        <v>157.3528686068086</v>
       </c>
       <c r="G26" t="n">
-        <v>33.87189539398801</v>
+        <v>157.3528686068086</v>
       </c>
       <c r="H26" t="n">
-        <v>33.87189539398801</v>
+        <v>157.3528686068086</v>
       </c>
       <c r="I26" t="n">
         <v>33.87189539398801</v>
@@ -6229,16 +6229,16 @@
         <v>46.93276889472939</v>
       </c>
       <c r="K26" t="n">
-        <v>117.2461508361353</v>
+        <v>438.1501092815885</v>
       </c>
       <c r="L26" t="n">
-        <v>536.410856336737</v>
+        <v>857.3148147821901</v>
       </c>
       <c r="M26" t="n">
-        <v>733.7943923835527</v>
+        <v>1027.104719131024</v>
       </c>
       <c r="N26" t="n">
-        <v>1152.959097884154</v>
+        <v>1204.255810020934</v>
       </c>
       <c r="O26" t="n">
         <v>1572.123803384756</v>
@@ -6253,25 +6253,25 @@
         <v>1693.5947696994</v>
       </c>
       <c r="S26" t="n">
-        <v>1693.5947696994</v>
+        <v>1601.432224095786</v>
       </c>
       <c r="T26" t="n">
-        <v>1693.5947696994</v>
+        <v>1601.432224095786</v>
       </c>
       <c r="U26" t="n">
-        <v>1693.5947696994</v>
+        <v>1601.432224095786</v>
       </c>
       <c r="V26" t="n">
-        <v>1693.5947696994</v>
+        <v>1270.369336752215</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.826114429286</v>
+        <v>1270.369336752215</v>
       </c>
       <c r="X26" t="n">
-        <v>967.3603561682064</v>
+        <v>1270.369336752215</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.2210241923947</v>
+        <v>1270.369336752215</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>494.9574830856964</v>
+        <v>338.8741242134885</v>
       </c>
       <c r="C27" t="n">
-        <v>320.5044538045694</v>
+        <v>338.8741242134885</v>
       </c>
       <c r="D27" t="n">
-        <v>320.5044538045694</v>
+        <v>338.8741242134885</v>
       </c>
       <c r="E27" t="n">
-        <v>320.5044538045694</v>
+        <v>338.8741242134885</v>
       </c>
       <c r="F27" t="n">
-        <v>320.5044538045694</v>
+        <v>192.3395662403735</v>
       </c>
       <c r="G27" t="n">
-        <v>183.0104847332152</v>
+        <v>135.295602591853</v>
       </c>
       <c r="H27" t="n">
-        <v>81.58677753535019</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="I27" t="n">
         <v>33.87189539398801</v>
@@ -6311,16 +6311,16 @@
         <v>93.15951565134745</v>
       </c>
       <c r="L27" t="n">
-        <v>492.4436819059833</v>
+        <v>512.324221151949</v>
       </c>
       <c r="M27" t="n">
-        <v>658.8856927401905</v>
+        <v>931.4889266525506</v>
       </c>
       <c r="N27" t="n">
-        <v>844.1415732532661</v>
+        <v>1159.419714206804</v>
       </c>
       <c r="O27" t="n">
-        <v>1263.306278753868</v>
+        <v>1578.584419707405</v>
       </c>
       <c r="P27" t="n">
         <v>1677.434982624923</v>
@@ -6332,25 +6332,25 @@
         <v>1669.218829876868</v>
       </c>
       <c r="S27" t="n">
-        <v>1518.775549474196</v>
+        <v>1669.218829876868</v>
       </c>
       <c r="T27" t="n">
-        <v>1321.57435387683</v>
+        <v>1472.017634279502</v>
       </c>
       <c r="U27" t="n">
-        <v>1093.432107741247</v>
+        <v>1243.87538814392</v>
       </c>
       <c r="V27" t="n">
-        <v>858.2799995095047</v>
+        <v>1008.723279912177</v>
       </c>
       <c r="W27" t="n">
-        <v>702.8089832912292</v>
+        <v>754.4859231839753</v>
       </c>
       <c r="X27" t="n">
-        <v>494.9574830856964</v>
+        <v>546.6344229784424</v>
       </c>
       <c r="Y27" t="n">
-        <v>494.9574830856964</v>
+        <v>338.8741242134885</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.3786298959149</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="C28" t="n">
-        <v>435.442446968008</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="D28" t="n">
-        <v>435.442446968008</v>
+        <v>629.896367783349</v>
       </c>
       <c r="E28" t="n">
-        <v>435.442446968008</v>
+        <v>629.896367783349</v>
       </c>
       <c r="F28" t="n">
-        <v>435.442446968008</v>
+        <v>483.0064202854386</v>
       </c>
       <c r="G28" t="n">
-        <v>335.3461293021988</v>
+        <v>314.3555011594158</v>
       </c>
       <c r="H28" t="n">
-        <v>180.6996271952794</v>
+        <v>159.7089990524964</v>
       </c>
       <c r="I28" t="n">
-        <v>54.86252353677109</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="J28" t="n">
         <v>33.87189539398801</v>
@@ -6411,25 +6411,25 @@
         <v>994.2354712077105</v>
       </c>
       <c r="S28" t="n">
-        <v>786.0270947261546</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="T28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="X28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
       <c r="Y28" t="n">
-        <v>786.0270947261546</v>
+        <v>780.0130071956847</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.455437723589</v>
+        <v>923.8176252731682</v>
       </c>
       <c r="C29" t="n">
-        <v>934.4929207831769</v>
+        <v>923.8176252731682</v>
       </c>
       <c r="D29" t="n">
-        <v>576.2272221764265</v>
+        <v>923.8176252731682</v>
       </c>
       <c r="E29" t="n">
-        <v>190.4389695781823</v>
+        <v>538.0293726749239</v>
       </c>
       <c r="F29" t="n">
-        <v>190.4389695781823</v>
+        <v>127.0434678853164</v>
       </c>
       <c r="G29" t="n">
-        <v>190.4389695781823</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="H29" t="n">
-        <v>157.3528686068086</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="I29" t="n">
         <v>33.87189539398801</v>
       </c>
       <c r="J29" t="n">
-        <v>46.93276889472939</v>
+        <v>214.3384179150824</v>
       </c>
       <c r="K29" t="n">
-        <v>168.9602249939996</v>
+        <v>284.6517998564884</v>
       </c>
       <c r="L29" t="n">
-        <v>293.091954684793</v>
+        <v>408.7835295472818</v>
       </c>
       <c r="M29" t="n">
-        <v>712.2566601853946</v>
+        <v>788.8237666644717</v>
       </c>
       <c r="N29" t="n">
-        <v>889.4077510753053</v>
+        <v>1207.988472165073</v>
       </c>
       <c r="O29" t="n">
-        <v>1043.351241541682</v>
+        <v>1361.93196263145</v>
       </c>
       <c r="P29" t="n">
         <v>1458.818169277021</v>
@@ -6487,28 +6487,28 @@
         <v>1693.5947696994</v>
       </c>
       <c r="R29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="S29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="T29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="U29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="V29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="W29" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="X29" t="n">
-        <v>1693.5947696994</v>
+        <v>1313.95695724898</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.455437723589</v>
+        <v>923.8176252731682</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>212.8067836333484</v>
+        <v>208.324924675115</v>
       </c>
       <c r="C30" t="n">
-        <v>182.8063050552393</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="D30" t="n">
         <v>33.87189539398801</v>
@@ -6542,19 +6542,19 @@
         <v>33.87189539398801</v>
       </c>
       <c r="J30" t="n">
-        <v>147.6631402051006</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="K30" t="n">
-        <v>206.9507604624601</v>
+        <v>93.15951565134745</v>
       </c>
       <c r="L30" t="n">
-        <v>626.1154659630616</v>
+        <v>492.4436819059833</v>
       </c>
       <c r="M30" t="n">
-        <v>792.5574767972688</v>
+        <v>658.8856927401905</v>
       </c>
       <c r="N30" t="n">
-        <v>977.8133573103444</v>
+        <v>844.1415732532661</v>
       </c>
       <c r="O30" t="n">
         <v>1263.306278753868</v>
@@ -6566,28 +6566,28 @@
         <v>1693.5947696994</v>
       </c>
       <c r="R30" t="n">
-        <v>1693.5947696994</v>
+        <v>1669.218829876868</v>
       </c>
       <c r="S30" t="n">
-        <v>1543.151489296728</v>
+        <v>1518.775549474196</v>
       </c>
       <c r="T30" t="n">
-        <v>1345.950293699362</v>
+        <v>1321.57435387683</v>
       </c>
       <c r="U30" t="n">
-        <v>1117.808047563779</v>
+        <v>1113.326188605546</v>
       </c>
       <c r="V30" t="n">
-        <v>882.6559393320367</v>
+        <v>878.1740803738035</v>
       </c>
       <c r="W30" t="n">
-        <v>628.4185826038351</v>
+        <v>623.9367236456018</v>
       </c>
       <c r="X30" t="n">
-        <v>420.5670823983023</v>
+        <v>416.0852234400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8067836333484</v>
+        <v>208.324924675115</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.87189539398801</v>
+        <v>479.2633773542154</v>
       </c>
       <c r="C31" t="n">
-        <v>33.87189539398801</v>
+        <v>478.7915758866272</v>
       </c>
       <c r="D31" t="n">
-        <v>33.87189539398801</v>
+        <v>328.6749364742915</v>
       </c>
       <c r="E31" t="n">
-        <v>33.87189539398801</v>
+        <v>180.7618428918984</v>
       </c>
       <c r="F31" t="n">
         <v>33.87189539398801</v>
@@ -6660,13 +6660,13 @@
         <v>479.2633773542154</v>
       </c>
       <c r="W31" t="n">
-        <v>189.8462073172548</v>
+        <v>479.2633773542154</v>
       </c>
       <c r="X31" t="n">
-        <v>189.8462073172548</v>
+        <v>479.2633773542154</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.87189539398801</v>
+        <v>479.2633773542154</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>419.6601479922322</v>
+        <v>910.6835434701263</v>
       </c>
       <c r="C32" t="n">
-        <v>419.6601479922322</v>
+        <v>910.6835434701263</v>
       </c>
       <c r="D32" t="n">
-        <v>419.6601479922322</v>
+        <v>552.4178448633759</v>
       </c>
       <c r="E32" t="n">
-        <v>33.87189539398801</v>
+        <v>444.8578001835955</v>
       </c>
       <c r="F32" t="n">
         <v>33.87189539398801</v>
@@ -6700,52 +6700,52 @@
         <v>33.87189539398801</v>
       </c>
       <c r="J32" t="n">
-        <v>52.98866839455332</v>
+        <v>214.3384179150824</v>
       </c>
       <c r="K32" t="n">
-        <v>123.3020503359593</v>
+        <v>605.5557583019415</v>
       </c>
       <c r="L32" t="n">
-        <v>542.4667558365609</v>
+        <v>729.6874879927349</v>
       </c>
       <c r="M32" t="n">
-        <v>712.2566601853946</v>
+        <v>899.4773923415686</v>
       </c>
       <c r="N32" t="n">
-        <v>889.4077510753053</v>
+        <v>1076.628483231479</v>
       </c>
       <c r="O32" t="n">
-        <v>1043.351241541682</v>
+        <v>1495.793188732081</v>
       </c>
       <c r="P32" t="n">
-        <v>1458.818169277021</v>
+        <v>1669.010010030326</v>
       </c>
       <c r="Q32" t="n">
         <v>1693.5947696994</v>
       </c>
       <c r="R32" t="n">
-        <v>1693.5947696994</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="S32" t="n">
-        <v>1536.033893499238</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="T32" t="n">
-        <v>1536.033893499238</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="U32" t="n">
-        <v>1536.033893499238</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="V32" t="n">
-        <v>1536.033893499238</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="W32" t="n">
-        <v>1183.265238229124</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="X32" t="n">
-        <v>809.7994799680439</v>
+        <v>1687.42271551006</v>
       </c>
       <c r="Y32" t="n">
-        <v>419.6601479922322</v>
+        <v>1297.283383534248</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33.87189539398801</v>
+        <v>208.324924675115</v>
       </c>
       <c r="C33" t="n">
         <v>33.87189539398801</v>
@@ -6779,52 +6779,52 @@
         <v>33.87189539398801</v>
       </c>
       <c r="J33" t="n">
-        <v>147.6631402051006</v>
+        <v>33.87189539398801</v>
       </c>
       <c r="K33" t="n">
-        <v>430.3366666133769</v>
+        <v>93.15951565134745</v>
       </c>
       <c r="L33" t="n">
-        <v>556.3787297513265</v>
+        <v>219.2015787892971</v>
       </c>
       <c r="M33" t="n">
-        <v>722.8207405855337</v>
+        <v>638.3662842898987</v>
       </c>
       <c r="N33" t="n">
-        <v>908.0766210986093</v>
+        <v>1057.5309897905</v>
       </c>
       <c r="O33" t="n">
-        <v>1055.329763895377</v>
+        <v>1476.695695291102</v>
       </c>
       <c r="P33" t="n">
-        <v>1469.458467766432</v>
+        <v>1575.546258208619</v>
       </c>
       <c r="Q33" t="n">
         <v>1693.5947696994</v>
       </c>
       <c r="R33" t="n">
-        <v>1669.218829876868</v>
+        <v>1693.5947696994</v>
       </c>
       <c r="S33" t="n">
-        <v>1518.775549474196</v>
+        <v>1543.151489296728</v>
       </c>
       <c r="T33" t="n">
-        <v>1321.57435387683</v>
+        <v>1345.950293699362</v>
       </c>
       <c r="U33" t="n">
-        <v>1093.432107741247</v>
+        <v>1117.808047563779</v>
       </c>
       <c r="V33" t="n">
-        <v>858.2799995095047</v>
+        <v>882.6559393320367</v>
       </c>
       <c r="W33" t="n">
-        <v>604.0426427813031</v>
+        <v>628.4185826038351</v>
       </c>
       <c r="X33" t="n">
-        <v>396.1911425757703</v>
+        <v>420.5670823983023</v>
       </c>
       <c r="Y33" t="n">
-        <v>202.087232414056</v>
+        <v>212.8067836333484</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.8080783218949</v>
+        <v>511.5614321038063</v>
       </c>
       <c r="C34" t="n">
-        <v>33.87189539398801</v>
+        <v>342.6252491758994</v>
       </c>
       <c r="D34" t="n">
-        <v>33.87189539398801</v>
+        <v>342.6252491758994</v>
       </c>
       <c r="E34" t="n">
-        <v>33.87189539398801</v>
+        <v>194.7121555935063</v>
       </c>
       <c r="F34" t="n">
-        <v>33.87189539398801</v>
+        <v>47.82220809559593</v>
       </c>
       <c r="G34" t="n">
-        <v>33.87189539398801</v>
+        <v>47.82220809559593</v>
       </c>
       <c r="H34" t="n">
         <v>33.87189539398801</v>
@@ -6882,28 +6882,28 @@
         <v>994.2354712077105</v>
       </c>
       <c r="R34" t="n">
-        <v>861.7757771591566</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="S34" t="n">
-        <v>861.7757771591566</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="T34" t="n">
-        <v>861.7757771591566</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="U34" t="n">
-        <v>861.7757771591566</v>
+        <v>994.2354712077105</v>
       </c>
       <c r="V34" t="n">
-        <v>861.7757771591566</v>
+        <v>739.5509830018236</v>
       </c>
       <c r="W34" t="n">
-        <v>833.2386731936821</v>
+        <v>739.5509830018236</v>
       </c>
       <c r="X34" t="n">
-        <v>605.2491222956647</v>
+        <v>511.5614321038063</v>
       </c>
       <c r="Y34" t="n">
-        <v>384.4565431521346</v>
+        <v>511.5614321038063</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>205.2842145090182</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="C35" t="n">
-        <v>205.2842145090182</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="D35" t="n">
-        <v>205.2842145090182</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="E35" t="n">
-        <v>205.2842145090182</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="F35" t="n">
-        <v>205.2842145090182</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="G35" t="n">
-        <v>16.93594769699401</v>
+        <v>199.1121603196776</v>
       </c>
       <c r="H35" t="n">
         <v>16.93594769699401</v>
@@ -6937,22 +6937,22 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J35" t="n">
-        <v>29.99682119773503</v>
+        <v>29.99682119773539</v>
       </c>
       <c r="K35" t="n">
-        <v>100.310203139141</v>
+        <v>100.3102031391414</v>
       </c>
       <c r="L35" t="n">
-        <v>224.4419328299344</v>
+        <v>224.4419328299347</v>
       </c>
       <c r="M35" t="n">
-        <v>394.2318371787681</v>
+        <v>394.2318371787685</v>
       </c>
       <c r="N35" t="n">
-        <v>571.3829280686788</v>
+        <v>571.3829280686791</v>
       </c>
       <c r="O35" t="n">
-        <v>725.3264185350558</v>
+        <v>725.3264185350562</v>
       </c>
       <c r="P35" t="n">
         <v>822.2126251806262</v>
@@ -6961,28 +6961,28 @@
         <v>846.7973848497003</v>
       </c>
       <c r="R35" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="S35" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="T35" t="n">
-        <v>846.7973848497003</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="U35" t="n">
-        <v>632.9596614028062</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="V35" t="n">
-        <v>419.1219379559122</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="W35" t="n">
-        <v>419.1219379559122</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="X35" t="n">
-        <v>205.2842145090182</v>
+        <v>412.9498837665716</v>
       </c>
       <c r="Y35" t="n">
-        <v>205.2842145090182</v>
+        <v>412.9498837665716</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.93594769699401</v>
+        <v>482.5163810001341</v>
       </c>
       <c r="C36" t="n">
-        <v>16.93594769699401</v>
+        <v>449.8988844027145</v>
       </c>
       <c r="D36" t="n">
-        <v>16.93594769699401</v>
+        <v>300.9644747414633</v>
       </c>
       <c r="E36" t="n">
-        <v>16.93594769699401</v>
+        <v>300.9644747414633</v>
       </c>
       <c r="F36" t="n">
-        <v>16.93594769699401</v>
+        <v>154.4299167683482</v>
       </c>
       <c r="G36" t="n">
         <v>16.93594769699401</v>
@@ -7028,13 +7028,13 @@
         <v>368.7076419265103</v>
       </c>
       <c r="N36" t="n">
-        <v>578.2899946768111</v>
+        <v>553.9635224395859</v>
       </c>
       <c r="O36" t="n">
-        <v>725.5431374735791</v>
+        <v>701.2166652363538</v>
       </c>
       <c r="P36" t="n">
-        <v>824.3937003910966</v>
+        <v>800.0672281538713</v>
       </c>
       <c r="Q36" t="n">
         <v>846.7973848497003</v>
@@ -7046,22 +7046,22 @@
         <v>696.3541044470281</v>
       </c>
       <c r="T36" t="n">
-        <v>499.1529088496619</v>
+        <v>696.3541044470281</v>
       </c>
       <c r="U36" t="n">
-        <v>285.3151854027678</v>
+        <v>482.5163810001341</v>
       </c>
       <c r="V36" t="n">
-        <v>230.773671143888</v>
+        <v>482.5163810001341</v>
       </c>
       <c r="W36" t="n">
-        <v>16.93594769699401</v>
+        <v>482.5163810001341</v>
       </c>
       <c r="X36" t="n">
-        <v>16.93594769699401</v>
+        <v>482.5163810001341</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.93594769699401</v>
+        <v>482.5163810001341</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.9596614028062</v>
+        <v>630.5065473156561</v>
       </c>
       <c r="C37" t="n">
-        <v>464.0234784748993</v>
+        <v>630.5065473156561</v>
       </c>
       <c r="D37" t="n">
-        <v>319.4955433863065</v>
+        <v>480.3899079033204</v>
       </c>
       <c r="E37" t="n">
-        <v>171.5824498039134</v>
+        <v>332.4768143209272</v>
       </c>
       <c r="F37" t="n">
-        <v>171.5824498039134</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="G37" t="n">
-        <v>171.5824498039134</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H37" t="n">
         <v>16.93594769699401</v>
@@ -7098,49 +7098,49 @@
         <v>16.93594769699401</v>
       </c>
       <c r="K37" t="n">
-        <v>112.9651659029007</v>
+        <v>102.6861174298105</v>
       </c>
       <c r="L37" t="n">
-        <v>291.3759381067546</v>
+        <v>281.0968896336644</v>
       </c>
       <c r="M37" t="n">
-        <v>359.3720667930942</v>
+        <v>479.5951569810204</v>
       </c>
       <c r="N37" t="n">
-        <v>558.5851054302257</v>
+        <v>678.8081956181518</v>
       </c>
       <c r="O37" t="n">
-        <v>726.574294661774</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="P37" t="n">
         <v>846.7973848497003</v>
       </c>
       <c r="Q37" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="R37" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="S37" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="T37" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="U37" t="n">
-        <v>846.7973848497003</v>
+        <v>632.7567798966429</v>
       </c>
       <c r="V37" t="n">
-        <v>846.7973848497003</v>
+        <v>632.7567798966429</v>
       </c>
       <c r="W37" t="n">
-        <v>846.7973848497003</v>
+        <v>632.7567798966429</v>
       </c>
       <c r="X37" t="n">
-        <v>632.9596614028062</v>
+        <v>632.7567798966429</v>
       </c>
       <c r="Y37" t="n">
-        <v>632.9596614028062</v>
+        <v>632.7567798966429</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.93594769699401</v>
+        <v>444.611394590782</v>
       </c>
       <c r="C38" t="n">
-        <v>16.93594769699401</v>
+        <v>230.773671143888</v>
       </c>
       <c r="D38" t="n">
-        <v>16.93594769699401</v>
+        <v>230.773671143888</v>
       </c>
       <c r="E38" t="n">
         <v>16.93594769699401</v>
@@ -7183,43 +7183,43 @@
         <v>224.4419328299347</v>
       </c>
       <c r="M38" t="n">
-        <v>394.2318371787685</v>
+        <v>394.2318371787681</v>
       </c>
       <c r="N38" t="n">
-        <v>571.3829280686791</v>
+        <v>571.3829280686788</v>
       </c>
       <c r="O38" t="n">
-        <v>725.3264185350562</v>
+        <v>725.3264185350558</v>
       </c>
       <c r="P38" t="n">
-        <v>822.2126251806266</v>
+        <v>822.2126251806262</v>
       </c>
       <c r="Q38" t="n">
         <v>846.7973848497003</v>
       </c>
       <c r="R38" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="S38" t="n">
-        <v>846.7973848497003</v>
+        <v>682.1712915478972</v>
       </c>
       <c r="T38" t="n">
-        <v>846.7973848497003</v>
+        <v>468.3335681010032</v>
       </c>
       <c r="U38" t="n">
-        <v>846.7973848497003</v>
+        <v>444.611394590782</v>
       </c>
       <c r="V38" t="n">
-        <v>846.7973848497003</v>
+        <v>444.611394590782</v>
       </c>
       <c r="W38" t="n">
-        <v>658.449118037676</v>
+        <v>444.611394590782</v>
       </c>
       <c r="X38" t="n">
         <v>444.611394590782</v>
       </c>
       <c r="Y38" t="n">
-        <v>230.773671143888</v>
+        <v>444.611394590782</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>822.4214450271681</v>
+        <v>191.388976978121</v>
       </c>
       <c r="C39" t="n">
-        <v>758.2749287473973</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="D39" t="n">
-        <v>609.3405190861461</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E39" t="n">
-        <v>450.1030640806905</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="F39" t="n">
-        <v>303.5685061075754</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="G39" t="n">
-        <v>166.0745370362212</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H39" t="n">
-        <v>64.6508298383562</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="I39" t="n">
         <v>16.93594769699401</v>
@@ -7265,7 +7265,7 @@
         <v>368.7076419265103</v>
       </c>
       <c r="N39" t="n">
-        <v>578.2899946768111</v>
+        <v>553.9635224395859</v>
       </c>
       <c r="O39" t="n">
         <v>731.7870348577055</v>
@@ -7277,28 +7277,28 @@
         <v>846.7973848497003</v>
       </c>
       <c r="R39" t="n">
-        <v>822.4214450271681</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="S39" t="n">
-        <v>822.4214450271681</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="T39" t="n">
-        <v>822.4214450271681</v>
+        <v>820.8384993955017</v>
       </c>
       <c r="U39" t="n">
-        <v>822.4214450271681</v>
+        <v>820.8384993955017</v>
       </c>
       <c r="V39" t="n">
-        <v>822.4214450271681</v>
+        <v>607.0007759486077</v>
       </c>
       <c r="W39" t="n">
-        <v>822.4214450271681</v>
+        <v>607.0007759486077</v>
       </c>
       <c r="X39" t="n">
-        <v>822.4214450271681</v>
+        <v>399.149275743075</v>
       </c>
       <c r="Y39" t="n">
-        <v>822.4214450271681</v>
+        <v>191.388976978121</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>451.3111965725665</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="C40" t="n">
-        <v>282.3750136446596</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="D40" t="n">
-        <v>132.2583742323239</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="E40" t="n">
-        <v>16.93594769699401</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="F40" t="n">
-        <v>16.93594769699401</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="G40" t="n">
         <v>16.93594769699401</v>
@@ -7335,49 +7335,49 @@
         <v>16.93594769699401</v>
       </c>
       <c r="K40" t="n">
-        <v>112.9651659029007</v>
+        <v>102.6861174298105</v>
       </c>
       <c r="L40" t="n">
-        <v>160.8737994457383</v>
+        <v>281.0968896336644</v>
       </c>
       <c r="M40" t="n">
-        <v>359.3720667930942</v>
+        <v>479.5951569810204</v>
       </c>
       <c r="N40" t="n">
-        <v>558.5851054302257</v>
+        <v>678.8081956181518</v>
       </c>
       <c r="O40" t="n">
-        <v>726.574294661774</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="P40" t="n">
         <v>846.7973848497003</v>
       </c>
       <c r="Q40" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="R40" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="S40" t="n">
-        <v>846.7973848497003</v>
+        <v>638.3861268619811</v>
       </c>
       <c r="T40" t="n">
-        <v>846.7973848497003</v>
+        <v>424.5484034150871</v>
       </c>
       <c r="U40" t="n">
-        <v>846.7973848497003</v>
+        <v>210.7106799681931</v>
       </c>
       <c r="V40" t="n">
-        <v>632.9596614028062</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="W40" t="n">
-        <v>632.9596614028062</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="X40" t="n">
-        <v>632.9596614028062</v>
+        <v>185.5868668230169</v>
       </c>
       <c r="Y40" t="n">
-        <v>632.9596614028062</v>
+        <v>185.5868668230169</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.2842145090182</v>
+        <v>354.2546443567086</v>
       </c>
       <c r="C41" t="n">
-        <v>205.2842145090182</v>
+        <v>354.2546443567086</v>
       </c>
       <c r="D41" t="n">
-        <v>205.2842145090182</v>
+        <v>354.2546443567086</v>
       </c>
       <c r="E41" t="n">
-        <v>205.2842145090182</v>
+        <v>354.2546443567086</v>
       </c>
       <c r="F41" t="n">
-        <v>205.2842145090182</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="G41" t="n">
-        <v>205.2842145090182</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="H41" t="n">
-        <v>16.93594769699401</v>
+        <v>140.4169209098146</v>
       </c>
       <c r="I41" t="n">
         <v>16.93594769699401</v>
       </c>
       <c r="J41" t="n">
-        <v>29.99682119773539</v>
+        <v>29.99682119773503</v>
       </c>
       <c r="K41" t="n">
-        <v>100.3102031391414</v>
+        <v>100.310203139141</v>
       </c>
       <c r="L41" t="n">
-        <v>224.4419328299347</v>
+        <v>224.4419328299344</v>
       </c>
       <c r="M41" t="n">
         <v>394.2318371787681</v>
@@ -7435,28 +7435,28 @@
         <v>846.7973848497003</v>
       </c>
       <c r="R41" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="S41" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="T41" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="U41" t="n">
-        <v>846.7973848497003</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="V41" t="n">
-        <v>846.7973848497003</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="W41" t="n">
-        <v>632.9596614028062</v>
+        <v>626.7876072134657</v>
       </c>
       <c r="X41" t="n">
-        <v>419.1219379559122</v>
+        <v>412.9498837665716</v>
       </c>
       <c r="Y41" t="n">
-        <v>419.1219379559122</v>
+        <v>412.9498837665716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.6264319835765</v>
+        <v>165.8703573582453</v>
       </c>
       <c r="C42" t="n">
-        <v>176.1734027024495</v>
+        <v>165.8703573582453</v>
       </c>
       <c r="D42" t="n">
-        <v>176.1734027024495</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E42" t="n">
         <v>16.93594769699401</v>
@@ -7490,19 +7490,19 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J42" t="n">
-        <v>47.50631731834565</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="K42" t="n">
-        <v>106.7939375757051</v>
+        <v>76.22356795435344</v>
       </c>
       <c r="L42" t="n">
-        <v>232.8360007136548</v>
+        <v>202.2656310923031</v>
       </c>
       <c r="M42" t="n">
-        <v>399.2780115478619</v>
+        <v>368.7076419265103</v>
       </c>
       <c r="N42" t="n">
-        <v>584.5338920609375</v>
+        <v>553.9635224395859</v>
       </c>
       <c r="O42" t="n">
         <v>731.7870348577055</v>
@@ -7517,25 +7517,25 @@
         <v>822.4214450271681</v>
       </c>
       <c r="S42" t="n">
-        <v>671.978164624496</v>
+        <v>822.4214450271681</v>
       </c>
       <c r="T42" t="n">
-        <v>474.7769690271297</v>
+        <v>795.3198797756261</v>
       </c>
       <c r="U42" t="n">
-        <v>350.6264319835765</v>
+        <v>795.3198797756261</v>
       </c>
       <c r="V42" t="n">
-        <v>350.6264319835765</v>
+        <v>581.482156328732</v>
       </c>
       <c r="W42" t="n">
-        <v>350.6264319835765</v>
+        <v>581.482156328732</v>
       </c>
       <c r="X42" t="n">
-        <v>350.6264319835765</v>
+        <v>373.6306561231992</v>
       </c>
       <c r="Y42" t="n">
-        <v>350.6264319835765</v>
+        <v>165.8703573582453</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.93594769699401</v>
+        <v>509.1695518578431</v>
       </c>
       <c r="C43" t="n">
-        <v>16.93594769699401</v>
+        <v>340.2333689299362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.93594769699401</v>
+        <v>340.2333689299362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.93594769699401</v>
+        <v>340.2333689299362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.93594769699401</v>
+        <v>340.2333689299362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.93594769699401</v>
+        <v>171.5824498039134</v>
       </c>
       <c r="H43" t="n">
         <v>16.93594769699401</v>
@@ -7578,10 +7578,10 @@
         <v>195.3467199008479</v>
       </c>
       <c r="M43" t="n">
-        <v>359.3720667930942</v>
+        <v>393.8449872482039</v>
       </c>
       <c r="N43" t="n">
-        <v>558.5851054302257</v>
+        <v>593.0580258853354</v>
       </c>
       <c r="O43" t="n">
         <v>726.574294661774</v>
@@ -7590,31 +7590,31 @@
         <v>846.7973848497003</v>
       </c>
       <c r="Q43" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="R43" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="S43" t="n">
-        <v>638.5890083681444</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="T43" t="n">
-        <v>424.7512849212504</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="U43" t="n">
-        <v>424.7512849212504</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="V43" t="n">
-        <v>424.7512849212504</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="W43" t="n">
-        <v>230.773671143888</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="X43" t="n">
-        <v>230.773671143888</v>
+        <v>690.8180166880828</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.93594769699401</v>
+        <v>690.8180166880828</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.2842145090182</v>
+        <v>444.611394590782</v>
       </c>
       <c r="C44" t="n">
-        <v>205.2842145090182</v>
+        <v>230.773671143888</v>
       </c>
       <c r="D44" t="n">
-        <v>205.2842145090182</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E44" t="n">
-        <v>205.2842145090182</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="F44" t="n">
-        <v>205.2842145090182</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="G44" t="n">
-        <v>205.2842145090182</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H44" t="n">
-        <v>140.4169209098146</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="I44" t="n">
         <v>16.93594769699401</v>
@@ -7672,28 +7672,28 @@
         <v>846.7973848497003</v>
       </c>
       <c r="R44" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="S44" t="n">
-        <v>846.7973848497003</v>
+        <v>840.6253306603597</v>
       </c>
       <c r="T44" t="n">
-        <v>846.7973848497003</v>
+        <v>658.449118037676</v>
       </c>
       <c r="U44" t="n">
-        <v>846.7973848497003</v>
+        <v>658.449118037676</v>
       </c>
       <c r="V44" t="n">
-        <v>846.7973848497003</v>
+        <v>658.449118037676</v>
       </c>
       <c r="W44" t="n">
-        <v>846.7973848497003</v>
+        <v>658.449118037676</v>
       </c>
       <c r="X44" t="n">
-        <v>632.9596614028062</v>
+        <v>658.449118037676</v>
       </c>
       <c r="Y44" t="n">
-        <v>419.1219379559122</v>
+        <v>658.449118037676</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>458.140441177602</v>
+        <v>191.388976978121</v>
       </c>
       <c r="C45" t="n">
-        <v>402.3881819393283</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="D45" t="n">
-        <v>402.3881819393283</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="E45" t="n">
-        <v>402.3881819393283</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="F45" t="n">
-        <v>255.8536239662132</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="G45" t="n">
-        <v>118.359654894859</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="H45" t="n">
         <v>16.93594769699401</v>
@@ -7727,22 +7727,22 @@
         <v>16.93594769699401</v>
       </c>
       <c r="J45" t="n">
-        <v>16.93594769699401</v>
+        <v>47.50631731834565</v>
       </c>
       <c r="K45" t="n">
-        <v>76.22356795435344</v>
+        <v>106.7939375757051</v>
       </c>
       <c r="L45" t="n">
-        <v>202.2656310923031</v>
+        <v>232.8360007136548</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7076419265103</v>
+        <v>399.2780115478619</v>
       </c>
       <c r="N45" t="n">
-        <v>553.9635224395859</v>
+        <v>584.5338920609375</v>
       </c>
       <c r="O45" t="n">
-        <v>701.2166652363538</v>
+        <v>731.7870348577055</v>
       </c>
       <c r="P45" t="n">
         <v>830.637597775223</v>
@@ -7751,28 +7751,28 @@
         <v>846.7973848497003</v>
       </c>
       <c r="R45" t="n">
-        <v>822.4214450271681</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="S45" t="n">
-        <v>671.978164624496</v>
+        <v>846.7973848497003</v>
       </c>
       <c r="T45" t="n">
-        <v>671.978164624496</v>
+        <v>787.279760891977</v>
       </c>
       <c r="U45" t="n">
-        <v>671.978164624496</v>
+        <v>573.4420374450831</v>
       </c>
       <c r="V45" t="n">
-        <v>671.978164624496</v>
+        <v>573.4420374450831</v>
       </c>
       <c r="W45" t="n">
-        <v>458.140441177602</v>
+        <v>359.6043139981891</v>
       </c>
       <c r="X45" t="n">
-        <v>458.140441177602</v>
+        <v>359.6043139981891</v>
       </c>
       <c r="Y45" t="n">
-        <v>458.140441177602</v>
+        <v>359.6043139981891</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>237.4734731256725</v>
+        <v>418.9190564497489</v>
       </c>
       <c r="C46" t="n">
-        <v>68.53729019776557</v>
+        <v>249.982873521842</v>
       </c>
       <c r="D46" t="n">
-        <v>16.93594769699401</v>
+        <v>99.86623410950625</v>
       </c>
       <c r="E46" t="n">
-        <v>16.93594769699401</v>
+        <v>99.86623410950625</v>
       </c>
       <c r="F46" t="n">
-        <v>16.93594769699401</v>
+        <v>99.86623410950625</v>
       </c>
       <c r="G46" t="n">
-        <v>16.93594769699401</v>
+        <v>99.86623410950625</v>
       </c>
       <c r="H46" t="n">
         <v>16.93594769699401</v>
@@ -7809,49 +7809,49 @@
         <v>16.93594769699401</v>
       </c>
       <c r="K46" t="n">
-        <v>102.6861174298105</v>
+        <v>16.93594769699401</v>
       </c>
       <c r="L46" t="n">
-        <v>281.0968896336644</v>
+        <v>195.3467199008479</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5951569810204</v>
+        <v>393.8449872482039</v>
       </c>
       <c r="N46" t="n">
-        <v>678.8081956181518</v>
+        <v>593.0580258853354</v>
       </c>
       <c r="O46" t="n">
-        <v>846.7973848497003</v>
+        <v>761.0472151168838</v>
       </c>
       <c r="P46" t="n">
         <v>846.7973848497003</v>
       </c>
       <c r="Q46" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="R46" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="S46" t="n">
-        <v>846.7973848497003</v>
+        <v>846.594503343537</v>
       </c>
       <c r="T46" t="n">
-        <v>846.7973848497003</v>
+        <v>632.7567798966429</v>
       </c>
       <c r="U46" t="n">
-        <v>632.9596614028062</v>
+        <v>418.9190564497489</v>
       </c>
       <c r="V46" t="n">
-        <v>632.9596614028062</v>
+        <v>418.9190564497489</v>
       </c>
       <c r="W46" t="n">
-        <v>632.9596614028062</v>
+        <v>418.9190564497489</v>
       </c>
       <c r="X46" t="n">
-        <v>632.9596614028062</v>
+        <v>418.9190564497489</v>
       </c>
       <c r="Y46" t="n">
-        <v>419.1219379559122</v>
+        <v>418.9190564497489</v>
       </c>
     </row>
   </sheetData>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>24.57219417901541</v>
       </c>
       <c r="O12" t="n">
-        <v>30.87916123368876</v>
+        <v>6.306967054673322</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>9.744556035655918</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8862,10 +8862,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>31.22132428404804</v>
       </c>
       <c r="P13" t="n">
-        <v>100.1854315412032</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9008,7 +9008,7 @@
         <v>11.15038401605266</v>
       </c>
       <c r="K15" t="n">
-        <v>30.87916123368865</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>30.87916123368866</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>9.744556035655918</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9096,13 +9096,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>39.99737476262713</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>100.1854315412031</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>24.57219417901538</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.306967054673216</v>
+        <v>30.87916123368878</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,13 +9324,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>9.744556035655918</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>143.6885291366076</v>
+        <v>46.68931882761123</v>
       </c>
       <c r="N19" t="n">
         <v>171.8177168444618</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>11.15038401605266</v>
+        <v>42.02954524974141</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>30.87916123368876</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>152.091824296009</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68931882761123</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9576,7 +9576,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>13.56909847775199</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>298.0131068785942</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>36.22995987414916</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>267.9002172062874</v>
+        <v>216.0853564620652</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,13 +9719,13 @@
         <v>11.15038401605266</v>
       </c>
       <c r="K24" t="n">
-        <v>65.92483662444015</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>255.2754491579742</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>20.72667520231486</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>298.0131068785942</v>
       </c>
       <c r="M26" t="n">
-        <v>27.87235525048683</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>244.4581965764554</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>267.9002172062874</v>
+        <v>216.0853564620652</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>276.0021243602891</v>
+        <v>296.0834771339918</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>255.2754491579742</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>43.10596670826013</v>
       </c>
       <c r="O27" t="n">
         <v>274.6581441452864</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>52.23643854329728</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>251.8937385371392</v>
+        <v>212.3740735033901</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>244.4581965764554</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>11.15038401605266</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>296.0834771339918</v>
+        <v>276.0021243602891</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>139.6361400472276</v>
+        <v>274.6581441452864</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.117070201842353</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>298.0131068785942</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>267.9002172062874</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>77.10163096229797</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>11.15038401605266</v>
       </c>
       <c r="K33" t="n">
-        <v>225.6423294453706</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>255.2754491579742</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>236.2715403914404</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>274.6581441452864</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>102.9179034508118</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>24.57219417901536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.306967054673102</v>
+        <v>30.87916123368854</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,13 +10746,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>96.36088909910693</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68931882761099</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>13.56909847775199</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10913,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>24.57219417901536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>6.306967054673095</v>
+        <v>30.87916123368854</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>96.36088909910693</v>
       </c>
       <c r="L40" t="n">
-        <v>30.65435945971978</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>13.56909847775199</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02954524974119</v>
+        <v>11.15038401605266</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>30.87916123368854</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>143.6885291366076</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>128.2205345930443</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>11.15038401605266</v>
+        <v>42.02954524974119</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>30.87916123368859</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>96.36088909910693</v>
+        <v>9.744556035655918</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>13.56909847775199</v>
+        <v>100.185431541203</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23275,7 +23275,7 @@
         <v>201.3148308698012</v>
       </c>
       <c r="H11" t="n">
-        <v>104.3377363698156</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I11" t="n">
         <v>122.2461634806924</v>
@@ -23311,7 +23311,7 @@
         <v>156.8694987213378</v>
       </c>
       <c r="T11" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648309</v>
       </c>
       <c r="U11" t="n">
         <v>251.1625680732038</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.16147746180167</v>
+        <v>225.8608236742268</v>
       </c>
       <c r="V12" t="n">
-        <v>202.936668457441</v>
+        <v>21.10124093700014</v>
       </c>
       <c r="W12" t="n">
-        <v>39.99563694849448</v>
+        <v>42.74338601086239</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>166.9644099347626</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.1000370858502</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>124.5787326219233</v>
       </c>
       <c r="J13" t="n">
         <v>20.78072186135526</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2008526911016588</v>
       </c>
       <c r="R13" t="n">
-        <v>131.1350971080682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>223.5593382543071</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2630346606529</v>
+        <v>74.56368844822779</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.43829711140287</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>225.6202578050705</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.27456678515861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>174.3285911242262</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>195.1766995292863</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.0141770822264</v>
+        <v>201.3148308698013</v>
       </c>
       <c r="H14" t="n">
         <v>316.0370825822407</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>156.8694987213378</v>
       </c>
       <c r="T14" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648338</v>
       </c>
       <c r="U14" t="n">
         <v>251.1625680732038</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>162.776184573509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>158.0317544660439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>174.5385924436285</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>82.12293026434955</v>
+        <v>136.1190293806407</v>
       </c>
       <c r="H15" t="n">
         <v>100.4094701258864</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.2291836413926</v>
       </c>
       <c r="U15" t="n">
         <v>225.8608236742268</v>
@@ -23636,7 +23636,7 @@
         <v>21.10124093700017</v>
       </c>
       <c r="W15" t="n">
-        <v>39.99563694849451</v>
+        <v>132.6802459968173</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.33156241042488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16.20276513413671</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.1000370858502</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>124.5787326219233</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.78072186135526</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>223.5593382543071</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2630346606529</v>
+        <v>74.56368844822782</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0344954510555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>342.6574250785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>201.3148308698013</v>
+        <v>413.0141770822264</v>
       </c>
       <c r="H17" t="n">
-        <v>104.3377363698156</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8694987213378</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648309</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1625680732038</v>
+        <v>39.46322186077867</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>256.7929661716173</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>88.52261784649269</v>
       </c>
       <c r="D18" t="n">
-        <v>55.11563514594098</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.1190293806407</v>
@@ -23867,19 +23867,19 @@
         <v>195.2291836413926</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8608236742268</v>
+        <v>14.16147746180167</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>39.99563694849448</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9644099347626</v>
       </c>
       <c r="H19" t="n">
-        <v>153.1000370858502</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>124.5787326219233</v>
       </c>
       <c r="J19" t="n">
-        <v>20.78072186135526</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>131.1350971080682</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.1262927167404</v>
       </c>
       <c r="T19" t="n">
-        <v>11.85999204188195</v>
+        <v>144.8978675592163</v>
       </c>
       <c r="U19" t="n">
-        <v>74.56368844822782</v>
+        <v>74.56368844822779</v>
       </c>
       <c r="V19" t="n">
-        <v>191.2349027923075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>74.82365212416587</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8694987213378</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648309</v>
       </c>
       <c r="U20" t="n">
-        <v>64.69778392929982</v>
+        <v>227.6776162980848</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>116.0529122577098</v>
       </c>
       <c r="W20" t="n">
-        <v>137.5416225049879</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>174.5385924436285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>149.9026489416027</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1190293806407</v>
+        <v>82.12293026434952</v>
       </c>
       <c r="H21" t="n">
         <v>100.4094701258864</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S21" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.2291836413926</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8608236742268</v>
+        <v>14.16147746180167</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>21.10124093700014</v>
       </c>
       <c r="W21" t="n">
-        <v>39.99563694849448</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9644099347626</v>
+        <v>81.66900139109421</v>
       </c>
       <c r="H22" t="n">
         <v>153.1000370858502</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>131.1350971080682</v>
@@ -24180,13 +24180,13 @@
         <v>206.1262927167404</v>
       </c>
       <c r="T22" t="n">
-        <v>11.85999204188192</v>
+        <v>223.5593382543071</v>
       </c>
       <c r="U22" t="n">
         <v>286.2630346606529</v>
       </c>
       <c r="V22" t="n">
-        <v>65.67285917992402</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>74.82365212416587</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>310.0937629541061</v>
+        <v>413.0141770822264</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>122.2461634806924</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.8694987213378</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.0776762690734</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1625680732038</v>
+        <v>119.7324481707718</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>131.6819890119896</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.4094701258864</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47.23773331994856</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>24.13218042430681</v>
       </c>
       <c r="S24" t="n">
-        <v>148.9388475986454</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>111.8819996319227</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8608236742268</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9644099347626</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>124.5787326219233</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.78072186135526</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0.2008526911016588</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>131.1350971080682</v>
       </c>
       <c r="S25" t="n">
-        <v>206.1262927167404</v>
+        <v>47.11779053320575</v>
       </c>
       <c r="T25" t="n">
         <v>223.5593382543071</v>
@@ -24423,10 +24423,10 @@
         <v>286.2630346606529</v>
       </c>
       <c r="V25" t="n">
-        <v>166.110763300243</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>210.0910959240655</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24463,7 +24463,7 @@
         <v>316.0370825822407</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2461634806924</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>6.110333647447163</v>
       </c>
       <c r="S26" t="n">
-        <v>156.8694987213378</v>
+        <v>65.6285785737595</v>
       </c>
       <c r="T26" t="n">
         <v>213.0776762690734</v>
@@ -24502,16 +24502,16 @@
         <v>251.1625680732038</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>79.6455053686054</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>47.23773331994856</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>97.77867710482687</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>67.86905544561159</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>20.78072186135526</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>131.1350971080682</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>206.1262927167404</v>
       </c>
       <c r="T28" t="n">
-        <v>223.5593382543071</v>
+        <v>11.47909888240159</v>
       </c>
       <c r="U28" t="n">
         <v>286.2630346606529</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.0141770822264</v>
+        <v>320.7743203158113</v>
       </c>
       <c r="H29" t="n">
-        <v>283.2818426205808</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>122.2461634806924</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>156.8694987213378</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>143.0080251959877</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>24.13218042430681</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>19.69514005565583</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>166.7797376457155</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9644099347626</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.17008454806066</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>275.4459258392793</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.0141770822264</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8842312831769448</v>
+        <v>156.8694987213378</v>
       </c>
       <c r="T32" t="n">
         <v>213.0776762690734</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>162.0961432812163</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.51982471720726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.9644099347626</v>
       </c>
       <c r="H34" t="n">
-        <v>153.1000370858502</v>
+        <v>139.2892275112584</v>
       </c>
       <c r="I34" t="n">
         <v>124.5787326219233</v>
@@ -25122,7 +25122,7 @@
         <v>0.2008526911016588</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>131.1350971080682</v>
       </c>
       <c r="S34" t="n">
         <v>206.1262927167404</v>
@@ -25134,16 +25134,16 @@
         <v>286.2630346606529</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>258.2712654107712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>171.0344954510555</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>226.5493929383224</v>
+        <v>413.0141770822264</v>
       </c>
       <c r="H35" t="n">
-        <v>316.0370825822407</v>
+        <v>135.6826320857839</v>
       </c>
       <c r="I35" t="n">
         <v>122.2461634806924</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>156.8694987213378</v>
       </c>
       <c r="T35" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648366</v>
       </c>
       <c r="U35" t="n">
-        <v>39.46322186077873</v>
+        <v>251.1625680732038</v>
       </c>
       <c r="V35" t="n">
-        <v>116.0529122577098</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>140.4171773568704</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1190293806407</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.4094701258864</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.2291836413926</v>
       </c>
       <c r="U36" t="n">
         <v>14.16147746180172</v>
       </c>
       <c r="V36" t="n">
-        <v>178.8044880331342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>39.99563694849454</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>177.6042499267604</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>5.532817280505469</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9644099347626</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.1000370858502</v>
       </c>
       <c r="I37" t="n">
         <v>124.5787326219233</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>131.1350971080682</v>
@@ -25368,7 +25368,7 @@
         <v>223.5593382543071</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2630346606529</v>
+        <v>74.56368844822785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>14.01030917661208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.0344954510555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>153.5735455585825</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>170.2310238598367</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>156.8694987213378</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.0776762690734</v>
+        <v>1.378330056648366</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1625680732038</v>
+        <v>227.6776162980848</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>162.776184573509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>158.031754466044</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.5385924436285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>109.2034478713426</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.1190293806407</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.4094701258864</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>47.23773331994856</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S39" t="n">
         <v>148.9388475986454</v>
       </c>
       <c r="T39" t="n">
-        <v>195.2291836413926</v>
+        <v>169.529887041736</v>
       </c>
       <c r="U39" t="n">
         <v>225.8608236742268</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>21.1012409370002</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.26476037659262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9644099347626</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.1000370858502</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>131.1350971080682</v>
       </c>
       <c r="S40" t="n">
-        <v>206.1262927167404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.5593382543071</v>
+        <v>11.85999204188198</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2630346606529</v>
+        <v>74.56368844822785</v>
       </c>
       <c r="V40" t="n">
-        <v>40.43829711140293</v>
+        <v>227.2650683101036</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0344954510555</v>
+        <v>324.6255546477162</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>195.1766995292864</v>
       </c>
       <c r="G41" t="n">
         <v>413.0141770822264</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5722984383368</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I41" t="n">
-        <v>122.2461634806924</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>156.8694987213378</v>
@@ -25684,13 +25684,13 @@
         <v>213.0776762690734</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1625680732038</v>
+        <v>39.46322186077873</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>137.5416225049879</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>158.031754466044</v>
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>168.398634042366</v>
       </c>
       <c r="U42" t="n">
-        <v>102.9517920011091</v>
+        <v>225.8608236742268</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>21.1012409370002</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9644099347626</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.1000370858502</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>124.5787326219233</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>131.1350971080682</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>51.90757092784074</v>
       </c>
       <c r="T43" t="n">
-        <v>11.85999204188198</v>
+        <v>223.5593382543071</v>
       </c>
       <c r="U43" t="n">
         <v>286.2630346606529</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>94.48516069700227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.88530713966972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>171.0344954510555</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>153.5735455585825</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>142.9836954082579</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>413.0141770822264</v>
       </c>
       <c r="H44" t="n">
-        <v>251.8184619190292</v>
+        <v>316.0370825822407</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>122.2461634806924</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.110333647447163</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>156.8694987213378</v>
       </c>
       <c r="T44" t="n">
-        <v>213.0776762690734</v>
+        <v>32.72322577261659</v>
       </c>
       <c r="U44" t="n">
         <v>251.1625680732038</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>158.031754466044</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>174.5385924436285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>117.5137623424248</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.1190293806407</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.4094701258864</v>
       </c>
       <c r="I45" t="n">
         <v>47.23773331994856</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.13218042430681</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>148.9388475986454</v>
       </c>
       <c r="T45" t="n">
-        <v>195.2291836413926</v>
+        <v>136.3067359232466</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8608236742268</v>
+        <v>14.16147746180172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.53014394244852</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>166.9644099347626</v>
       </c>
       <c r="H46" t="n">
-        <v>153.1000370858502</v>
+        <v>70.99905353746308</v>
       </c>
       <c r="I46" t="n">
         <v>124.5787326219233</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2008526911016588</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>131.1350971080682</v>
@@ -26076,7 +26076,7 @@
         <v>206.1262927167404</v>
       </c>
       <c r="T46" t="n">
-        <v>223.5593382543071</v>
+        <v>11.85999204188198</v>
       </c>
       <c r="U46" t="n">
         <v>74.56368844822785</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.88530713966972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415669.8388293347</v>
+        <v>415669.8388293345</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415669.8388293345</v>
+        <v>415669.8388293346</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415669.8388293347</v>
+        <v>415669.8388293345</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>566287.1290644686</v>
+        <v>566287.1290644684</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>566287.1290644684</v>
+        <v>566287.1290644686</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415669.8388293346</v>
+        <v>415669.8388293345</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415669.8388293347</v>
+        <v>415669.8388293345</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415669.8388293347</v>
+        <v>415669.8388293348</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415669.8388293346</v>
+        <v>415669.8388293345</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
         <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340007</v>
       </c>
       <c r="E2" t="n">
         <v>253795.2050515047</v>
       </c>
       <c r="F2" t="n">
-        <v>253795.2050515048</v>
+        <v>253795.2050515047</v>
       </c>
       <c r="G2" t="n">
         <v>253795.2050515047</v>
@@ -26334,25 +26334,25 @@
         <v>253795.2050515047</v>
       </c>
       <c r="I2" t="n">
+        <v>323543.8968073804</v>
+      </c>
+      <c r="J2" t="n">
+        <v>323543.8968073801</v>
+      </c>
+      <c r="K2" t="n">
+        <v>323543.8968073805</v>
+      </c>
+      <c r="L2" t="n">
         <v>323543.8968073803</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323543.8968073803</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323543.8968073804</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323543.8968073804</v>
       </c>
       <c r="M2" t="n">
         <v>253795.2050515047</v>
       </c>
       <c r="N2" t="n">
+        <v>253795.2050515046</v>
+      </c>
+      <c r="O2" t="n">
         <v>253795.2050515048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>253795.2050515047</v>
       </c>
       <c r="P2" t="n">
         <v>253795.2050515047</v>
@@ -26432,7 +26432,7 @@
         <v>11661.05063761471</v>
       </c>
       <c r="G4" t="n">
-        <v>11661.0506376147</v>
+        <v>11661.05063761471</v>
       </c>
       <c r="H4" t="n">
         <v>11661.05063761471</v>
@@ -26447,7 +26447,7 @@
         <v>51355.23520092397</v>
       </c>
       <c r="L4" t="n">
-        <v>51355.23520092397</v>
+        <v>51355.23520092398</v>
       </c>
       <c r="M4" t="n">
         <v>11661.0506376147</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93860.78946789753</v>
+        <v>93816.65368921617</v>
       </c>
       <c r="C6" t="n">
-        <v>93860.78946789747</v>
+        <v>93816.65368921634</v>
       </c>
       <c r="D6" t="n">
-        <v>93860.78946789753</v>
+        <v>93816.65368921605</v>
       </c>
       <c r="E6" t="n">
-        <v>-303717.0082899859</v>
+        <v>-314843.2301272781</v>
       </c>
       <c r="F6" t="n">
-        <v>216852.5430766188</v>
+        <v>205726.3212393267</v>
       </c>
       <c r="G6" t="n">
-        <v>216852.5430766187</v>
+        <v>205726.3212393267</v>
       </c>
       <c r="H6" t="n">
-        <v>216852.5430766187</v>
+        <v>205726.3212393267</v>
       </c>
       <c r="I6" t="n">
-        <v>177740.4281753154</v>
+        <v>169197.4912178706</v>
       </c>
       <c r="J6" t="n">
-        <v>234035.7300194696</v>
+        <v>225492.7930620247</v>
       </c>
       <c r="K6" t="n">
-        <v>234035.7300194697</v>
+        <v>225492.793062025</v>
       </c>
       <c r="L6" t="n">
-        <v>234035.7300194697</v>
+        <v>225492.7930620248</v>
       </c>
       <c r="M6" t="n">
-        <v>216852.5430766188</v>
+        <v>205726.3212393267</v>
       </c>
       <c r="N6" t="n">
-        <v>216852.5430766189</v>
+        <v>205726.3212393266</v>
       </c>
       <c r="O6" t="n">
-        <v>216852.5430766187</v>
+        <v>205726.3212393268</v>
       </c>
       <c r="P6" t="n">
-        <v>216852.5430766187</v>
+        <v>205726.3212393267</v>
       </c>
     </row>
   </sheetData>
@@ -35500,10 +35500,10 @@
         <v>168.1232432668759</v>
       </c>
       <c r="N12" t="n">
-        <v>187.1271520334097</v>
+        <v>211.6993462124251</v>
       </c>
       <c r="O12" t="n">
-        <v>179.6197095132524</v>
+        <v>155.047515334237</v>
       </c>
       <c r="P12" t="n">
         <v>99.84905345203779</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>96.99921030899661</v>
       </c>
       <c r="L13" t="n">
         <v>180.2129012160141</v>
@@ -35582,10 +35582,10 @@
         <v>201.225291552658</v>
       </c>
       <c r="O13" t="n">
-        <v>169.6860497288368</v>
+        <v>37.86570764700237</v>
       </c>
       <c r="P13" t="n">
-        <v>86.61633306345125</v>
+        <v>121.4374648362891</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>90.76564634213253</v>
+        <v>59.88648510844388</v>
       </c>
       <c r="L15" t="n">
         <v>127.3152152908582</v>
@@ -35746,7 +35746,7 @@
         <v>99.84905345203779</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.32301724694682</v>
+        <v>47.20217848063548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>96.99921030899661</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>180.2129012160141</v>
@@ -35816,13 +35816,13 @@
         <v>200.5033003508646</v>
       </c>
       <c r="N16" t="n">
-        <v>69.40494947082335</v>
+        <v>201.225291552658</v>
       </c>
       <c r="O16" t="n">
         <v>169.6860497288368</v>
       </c>
       <c r="P16" t="n">
-        <v>121.4374648362891</v>
+        <v>86.61633306345114</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>178.9404958483946</v>
       </c>
       <c r="O17" t="n">
-        <v>155.4984752185624</v>
+        <v>155.4984752185627</v>
       </c>
       <c r="P17" t="n">
         <v>97.86485519754581</v>
@@ -35974,7 +35974,7 @@
         <v>168.1232432668759</v>
       </c>
       <c r="N18" t="n">
-        <v>211.6993462124251</v>
+        <v>187.1271520334097</v>
       </c>
       <c r="O18" t="n">
         <v>148.7405482795637</v>
@@ -35983,7 +35983,7 @@
         <v>99.84905345203779</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.62998430162003</v>
+        <v>47.2021784806356</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>96.99921030899661</v>
       </c>
       <c r="L19" t="n">
         <v>180.2129012160141</v>
       </c>
       <c r="M19" t="n">
-        <v>165.6821685780266</v>
+        <v>68.68295826903019</v>
       </c>
       <c r="N19" t="n">
         <v>201.225291552658</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.19280151590038</v>
+        <v>13.19280151590025</v>
       </c>
       <c r="K20" t="n">
         <v>71.02361812263229</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>30.87916123368876</v>
       </c>
       <c r="K21" t="n">
         <v>59.88648510844388</v>
@@ -36214,7 +36214,7 @@
         <v>187.1271520334097</v>
       </c>
       <c r="O21" t="n">
-        <v>179.6197095132524</v>
+        <v>148.7405482795637</v>
       </c>
       <c r="P21" t="n">
         <v>99.84905345203779</v>
@@ -36284,10 +36284,10 @@
         <v>96.99921030899661</v>
       </c>
       <c r="L22" t="n">
-        <v>180.2129012160141</v>
+        <v>169.8300239704687</v>
       </c>
       <c r="M22" t="n">
-        <v>68.68295826903019</v>
+        <v>200.5033003508646</v>
       </c>
       <c r="N22" t="n">
         <v>201.225291552658</v>
@@ -36296,7 +36296,7 @@
         <v>169.6860497288368</v>
       </c>
       <c r="P22" t="n">
-        <v>121.4374648362891</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>13.19280151590038</v>
       </c>
       <c r="K23" t="n">
-        <v>71.02361812263229</v>
+        <v>395.169030693797</v>
       </c>
       <c r="L23" t="n">
-        <v>125.3855855462559</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="M23" t="n">
         <v>171.5049538877109</v>
       </c>
       <c r="N23" t="n">
-        <v>215.1704557225438</v>
+        <v>178.9404958483946</v>
       </c>
       <c r="O23" t="n">
-        <v>423.3986924248501</v>
+        <v>371.5838316806279</v>
       </c>
       <c r="P23" t="n">
-        <v>419.6635633690285</v>
+        <v>97.86485519754581</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.1480812347269</v>
+        <v>24.83309057482225</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>125.811321732884</v>
+        <v>59.88648510844388</v>
       </c>
       <c r="L24" t="n">
         <v>127.3152152908582</v>
       </c>
       <c r="M24" t="n">
-        <v>168.1232432668759</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="N24" t="n">
         <v>187.1271520334097</v>
@@ -36457,7 +36457,7 @@
         <v>418.3118220919749</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.4003049827959</v>
+        <v>37.04969244926168</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>13.19280151590038</v>
       </c>
       <c r="K26" t="n">
-        <v>71.02361812263229</v>
+        <v>395.169030693797</v>
       </c>
       <c r="L26" t="n">
         <v>423.3986924248501</v>
       </c>
       <c r="M26" t="n">
-        <v>199.3773091381977</v>
+        <v>171.5049538877109</v>
       </c>
       <c r="N26" t="n">
-        <v>423.3986924248501</v>
+        <v>178.9404958483946</v>
       </c>
       <c r="O26" t="n">
-        <v>423.3986924248501</v>
+        <v>371.5838316806279</v>
       </c>
       <c r="P26" t="n">
         <v>97.86485519754581</v>
@@ -36679,19 +36679,19 @@
         <v>59.88648510844388</v>
       </c>
       <c r="L27" t="n">
-        <v>403.3173396511474</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="M27" t="n">
-        <v>168.1232432668759</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="N27" t="n">
-        <v>187.1271520334097</v>
+        <v>230.2331187416698</v>
       </c>
       <c r="O27" t="n">
         <v>423.3986924248501</v>
       </c>
       <c r="P27" t="n">
-        <v>418.3118220919749</v>
+        <v>99.84905345203779</v>
       </c>
       <c r="Q27" t="n">
         <v>16.32301724694682</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>13.19280151590038</v>
+        <v>182.2894166879742</v>
       </c>
       <c r="K29" t="n">
-        <v>123.2600566659296</v>
+        <v>71.02361812263229</v>
       </c>
       <c r="L29" t="n">
         <v>125.3855855462559</v>
       </c>
       <c r="M29" t="n">
+        <v>383.8790273911009</v>
+      </c>
+      <c r="N29" t="n">
         <v>423.3986924248501</v>
-      </c>
-      <c r="N29" t="n">
-        <v>178.9404958483946</v>
       </c>
       <c r="O29" t="n">
         <v>155.4984752185627</v>
       </c>
       <c r="P29" t="n">
-        <v>419.6635633690285</v>
+        <v>97.86485519754581</v>
       </c>
       <c r="Q29" t="n">
         <v>237.1480812347269</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.9406513243562</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>59.88648510844388</v>
       </c>
       <c r="L30" t="n">
-        <v>423.3986924248501</v>
+        <v>403.3173396511474</v>
       </c>
       <c r="M30" t="n">
         <v>168.1232432668759</v>
@@ -36925,7 +36925,7 @@
         <v>187.1271520334097</v>
       </c>
       <c r="O30" t="n">
-        <v>288.3766883267912</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="P30" t="n">
         <v>418.3118220919749</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.30987171774274</v>
+        <v>182.2894166879742</v>
       </c>
       <c r="K32" t="n">
-        <v>71.02361812263229</v>
+        <v>395.169030693797</v>
       </c>
       <c r="L32" t="n">
-        <v>423.3986924248501</v>
+        <v>125.3855855462559</v>
       </c>
       <c r="M32" t="n">
         <v>171.5049538877109</v>
@@ -37083,13 +37083,13 @@
         <v>178.9404958483946</v>
       </c>
       <c r="O32" t="n">
-        <v>155.4984752185627</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="P32" t="n">
-        <v>419.6635633690285</v>
+        <v>174.9664861598438</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1480812347269</v>
+        <v>24.83309057482225</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.9406513243562</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>285.5288145538145</v>
+        <v>59.88648510844388</v>
       </c>
       <c r="L33" t="n">
         <v>127.3152152908582</v>
       </c>
       <c r="M33" t="n">
-        <v>168.1232432668759</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="N33" t="n">
-        <v>187.1271520334097</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="O33" t="n">
-        <v>148.7405482795637</v>
+        <v>423.3986924248501</v>
       </c>
       <c r="P33" t="n">
-        <v>418.3118220919749</v>
+        <v>99.84905345203779</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.4003049827959</v>
+        <v>119.2409206977586</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>13.19280151590002</v>
+        <v>13.19280151590038</v>
       </c>
       <c r="K35" t="n">
         <v>71.02361812263229</v>
@@ -37323,7 +37323,7 @@
         <v>155.4984752185627</v>
       </c>
       <c r="P35" t="n">
-        <v>97.86485519754581</v>
+        <v>97.8648551975455</v>
       </c>
       <c r="Q35" t="n">
         <v>24.83309057482225</v>
@@ -37396,7 +37396,7 @@
         <v>168.1232432668759</v>
       </c>
       <c r="N36" t="n">
-        <v>211.6993462124251</v>
+        <v>187.1271520334097</v>
       </c>
       <c r="O36" t="n">
         <v>148.7405482795637</v>
@@ -37405,7 +37405,7 @@
         <v>99.84905345203779</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.62998430161992</v>
+        <v>47.20217848063536</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>96.99921030899661</v>
+        <v>86.61633306345101</v>
       </c>
       <c r="L37" t="n">
         <v>180.2129012160141</v>
       </c>
       <c r="M37" t="n">
-        <v>68.68295826902995</v>
+        <v>200.5033003508646</v>
       </c>
       <c r="N37" t="n">
         <v>201.225291552658</v>
@@ -37481,7 +37481,7 @@
         <v>169.6860497288368</v>
       </c>
       <c r="P37" t="n">
-        <v>121.4374648362891</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>125.3855855462559</v>
       </c>
       <c r="M38" t="n">
-        <v>171.5049538877109</v>
+        <v>171.5049538877105</v>
       </c>
       <c r="N38" t="n">
         <v>178.9404958483946</v>
@@ -37563,7 +37563,7 @@
         <v>97.86485519754581</v>
       </c>
       <c r="Q38" t="n">
-        <v>24.83309057482194</v>
+        <v>24.83309057482225</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>168.1232432668759</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6993462124251</v>
+        <v>187.1271520334097</v>
       </c>
       <c r="O39" t="n">
-        <v>155.0475153342367</v>
+        <v>179.6197095132522</v>
       </c>
       <c r="P39" t="n">
         <v>99.84905345203779</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>96.99921030899661</v>
+        <v>86.61633306345101</v>
       </c>
       <c r="L40" t="n">
-        <v>48.39255913417943</v>
+        <v>180.2129012160141</v>
       </c>
       <c r="M40" t="n">
         <v>200.5033003508646</v>
@@ -37718,7 +37718,7 @@
         <v>169.6860497288368</v>
       </c>
       <c r="P40" t="n">
-        <v>121.4374648362891</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.19280151590038</v>
+        <v>13.19280151590002</v>
       </c>
       <c r="K41" t="n">
         <v>71.02361812263229</v>
@@ -37788,7 +37788,7 @@
         <v>125.3855855462559</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5049538877105</v>
+        <v>171.5049538877109</v>
       </c>
       <c r="N41" t="n">
         <v>178.9404958483946</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30.87916123368853</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>59.88648510844388</v>
@@ -37873,7 +37873,7 @@
         <v>187.1271520334097</v>
       </c>
       <c r="O42" t="n">
-        <v>148.7405482795637</v>
+        <v>179.6197095132522</v>
       </c>
       <c r="P42" t="n">
         <v>99.84905345203779</v>
@@ -37946,13 +37946,13 @@
         <v>180.2129012160141</v>
       </c>
       <c r="M43" t="n">
-        <v>165.6821685780266</v>
+        <v>200.5033003508646</v>
       </c>
       <c r="N43" t="n">
         <v>201.225291552658</v>
       </c>
       <c r="O43" t="n">
-        <v>169.6860497288368</v>
+        <v>134.8649179559987</v>
       </c>
       <c r="P43" t="n">
         <v>121.4374648362891</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>30.87916123368853</v>
       </c>
       <c r="K45" t="n">
         <v>59.88648510844388</v>
@@ -38113,7 +38113,7 @@
         <v>148.7405482795637</v>
       </c>
       <c r="P45" t="n">
-        <v>130.7282146857264</v>
+        <v>99.84905345203779</v>
       </c>
       <c r="Q45" t="n">
         <v>16.32301724694682</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.61633306345101</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>180.2129012160141</v>
@@ -38192,7 +38192,7 @@
         <v>169.6860497288368</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>86.61633306345102</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
